--- a/Schlagwortliste_IBBNE.xlsx
+++ b/Schlagwortliste_IBBNE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbb\Documents\WIP\IBBNE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbb\Documents\WIP\IBBNE\AGBFN-Beitrag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="5290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="BNE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="627">
   <si>
     <t>Nachhaltigkeitsbezogene Formulierungen</t>
   </si>
@@ -232,12 +232,6 @@
   </si>
   <si>
     <t xml:space="preserve">"Kipppunkt[e]?","(klimatische|umweltrelevante)[n]? (.*) Folgewirkungen", </t>
-  </si>
-  <si>
-    <t>ökologische Verantwortung</t>
-  </si>
-  <si>
-    <t>"ökologischer[r]? verantwortung",</t>
   </si>
   <si>
     <t>CO2-Ausstoß</t>
@@ -3353,31 +3347,142 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3398,21 +3503,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3423,102 +3513,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3835,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="B24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3867,7 +3861,7 @@
       <c r="C2" s="85"/>
       <c r="D2" s="86"/>
       <c r="E2" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
@@ -4071,7 +4065,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.4">
@@ -4160,7 +4154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="77"/>
       <c r="B23" s="10" t="s">
         <v>63</v>
@@ -4175,142 +4169,144 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="77"/>
       <c r="B24" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="E24" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="77"/>
       <c r="B25" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="77"/>
       <c r="B26" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="77"/>
       <c r="B27" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E27" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="77"/>
-      <c r="B28" s="10" t="s">
-        <v>76</v>
+      <c r="B28" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="E28" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" s="77"/>
-      <c r="B29" s="37" t="s">
-        <v>79</v>
+      <c r="B29" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A30" s="77"/>
       <c r="B30" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="77"/>
       <c r="B31" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="77"/>
       <c r="B32" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="77"/>
       <c r="B33" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>93</v>
@@ -4319,32 +4315,30 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A34" s="77"/>
       <c r="B34" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="77"/>
       <c r="B35" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="9" t="s">
         <v>100</v>
       </c>
@@ -4355,123 +4349,123 @@
         <v>101</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="E36" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="77"/>
       <c r="B37" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="77"/>
       <c r="B38" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="77"/>
       <c r="B39" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
+    <row r="40" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="87"/>
       <c r="B40" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="87"/>
+    <row r="41" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A41" s="76" t="s">
+        <v>113</v>
+      </c>
       <c r="B41" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>115</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E41" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A42" s="76" t="s">
-        <v>115</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="77"/>
       <c r="B42" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="77"/>
       <c r="B43" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="77"/>
       <c r="B44" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>126</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="9" t="s">
         <v>127</v>
       </c>
@@ -4482,363 +4476,363 @@
         <v>128</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="77"/>
       <c r="B46" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>603</v>
+      </c>
       <c r="E46" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="77"/>
       <c r="B47" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="E47" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E47" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="107.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="77"/>
       <c r="B48" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>136</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D48" s="10"/>
       <c r="E48" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="107.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="77"/>
       <c r="B49" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="10"/>
+        <v>139</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>604</v>
+      </c>
       <c r="E49" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="77"/>
       <c r="B50" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>606</v>
+        <v>142</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="77"/>
       <c r="B51" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="77"/>
       <c r="B52" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="77"/>
       <c r="B53" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="E53" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="77"/>
       <c r="B54" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="77"/>
       <c r="B55" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="77"/>
       <c r="B56" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="77"/>
       <c r="B57" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="77"/>
       <c r="B58" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="77"/>
       <c r="B59" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="77"/>
       <c r="B60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="77"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="78"/>
       <c r="B61" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="78"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="51.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="88" t="s">
+        <v>179</v>
+      </c>
       <c r="B62" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="51.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="88" t="s">
-        <v>181</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="77"/>
       <c r="B63" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="77"/>
       <c r="B64" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="77"/>
       <c r="B65" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="77"/>
       <c r="B66" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>192</v>
+        <v>102</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="77"/>
-      <c r="B67" s="10" t="s">
-        <v>194</v>
+      <c r="B67" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>195</v>
+        <v>102</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>605</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="77"/>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="10" t="s">
         <v>197</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>607</v>
+        <v>102</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="77"/>
       <c r="B69" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>200</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D69" s="10"/>
       <c r="E69" s="5" t="s">
         <v>201</v>
       </c>
@@ -4849,7 +4843,7 @@
         <v>202</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="5" t="s">
@@ -4862,7 +4856,7 @@
         <v>204</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="5" t="s">
@@ -4875,7 +4869,7 @@
         <v>206</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="5" t="s">
@@ -4888,122 +4882,122 @@
         <v>208</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A74" s="77"/>
       <c r="B74" s="10" t="s">
         <v>210</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="E74" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="77"/>
       <c r="B75" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="77"/>
       <c r="B76" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>217</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D76" s="10"/>
       <c r="E76" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="77"/>
-      <c r="B77" s="10" t="s">
-        <v>219</v>
+      <c r="B77" s="37" t="s">
+        <v>220</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="D77" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="D77" s="37"/>
       <c r="E77" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="77"/>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="10" t="s">
         <v>222</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="37"/>
+        <v>223</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="E78" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="77"/>
       <c r="B79" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="77"/>
       <c r="B80" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>229</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D80" s="39"/>
       <c r="E80" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="77"/>
       <c r="B81" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="44" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5013,64 +5007,66 @@
         <v>234</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="77"/>
+      <c r="E82" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="87"/>
       <c r="B83" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="87"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="79" t="s">
+        <v>240</v>
+      </c>
       <c r="B84" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="79" t="s">
-        <v>242</v>
-      </c>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="80"/>
       <c r="B85" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="80"/>
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>606</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>26</v>
@@ -5079,45 +5075,30 @@
         <v>247</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="80"/>
-      <c r="B87" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
+      <c r="A88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A42:A62"/>
-    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A41:A61"/>
+    <mergeCell ref="A84:A86"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A41"/>
-    <mergeCell ref="A63:A84"/>
+    <mergeCell ref="A16:A40"/>
+    <mergeCell ref="A62:A83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5145,46 +5126,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
+      <c r="A1" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125"/>
       <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="117"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="116"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
       <c r="H2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I2" s="117"/>
+        <v>250</v>
+      </c>
+      <c r="I2" s="126"/>
     </row>
     <row r="3" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="119"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13" t="s">
@@ -5194,1889 +5175,1889 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="93" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="F4" s="46" t="s">
         <v>257</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>259</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="48" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="121"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="130"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="110" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="132" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89" t="s">
+      <c r="G5" s="131"/>
+      <c r="H5" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="130"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="49" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="121"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="89" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="130"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="49" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="121"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="105" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="31" t="s">
-        <v>267</v>
-      </c>
       <c r="F7" s="50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="130"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="94" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="121"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="105" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="31" t="s">
-        <v>270</v>
-      </c>
       <c r="F8" s="50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="130"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="52" t="s">
+        <v>600</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="121"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="105" t="s">
+      <c r="G9" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="52" t="s">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="130"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>623</v>
-      </c>
-      <c r="H9" s="14" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="130"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="121"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="105" t="s">
+      <c r="D11" s="94"/>
+      <c r="E11" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>603</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="121"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="105" t="s">
+      <c r="F11" s="31" t="s">
         <v>276</v>
-      </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>278</v>
       </c>
       <c r="G11" s="51"/>
       <c r="H11" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="130"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="31" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="121"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="31" t="s">
-        <v>281</v>
-      </c>
       <c r="F12" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G12" s="51"/>
       <c r="H12" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="130"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="31" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="121"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="105" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="31" t="s">
-        <v>284</v>
-      </c>
       <c r="F13" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A14" s="130"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="28" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A14" s="121"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="105" t="s">
+      <c r="F14" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="28" t="s">
+      <c r="G14" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="H14" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="31" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="130"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="D15" s="108"/>
+      <c r="E15" s="29" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="121"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="91" t="s">
+      <c r="F15" s="29" t="s">
         <v>291</v>
-      </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>293</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="130"/>
+      <c r="B16" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="93"/>
+      <c r="E16" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="121"/>
-      <c r="B16" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>609</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>296</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="289.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="130"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="289.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="121"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="31" t="s">
-        <v>624</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>299</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="130"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="107"/>
+      <c r="E18" s="31" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="121"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="92" t="s">
+      <c r="F18" s="31" t="s">
         <v>301</v>
-      </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>303</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="130"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="31" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="121"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="105" t="s">
+      <c r="F19" s="31" t="s">
         <v>305</v>
-      </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>307</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="130"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="108" t="s">
+        <v>608</v>
+      </c>
+      <c r="D20" s="108"/>
+      <c r="E20" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="121"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="91" t="s">
-        <v>610</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>310</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="130"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="106" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="107"/>
+      <c r="E21" s="29" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="121"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="92" t="s">
+      <c r="F21" s="29" t="s">
         <v>312</v>
-      </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>314</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="130"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="133" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="134"/>
+      <c r="E22" s="71" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="121"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="94" t="s">
-        <v>316</v>
-      </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="71" t="s">
-        <v>317</v>
-      </c>
       <c r="F22" s="71" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="130"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="102"/>
+      <c r="E23" s="71" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="121"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="96" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="71" t="s">
-        <v>320</v>
-      </c>
       <c r="F23" s="71" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="130"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="134"/>
+      <c r="E24" s="71" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="121"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="94" t="s">
-        <v>322</v>
-      </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="71" t="s">
-        <v>323</v>
-      </c>
       <c r="F24" s="71" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A25" s="130"/>
+      <c r="B25" s="113" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>609</v>
+      </c>
+      <c r="D25" s="93"/>
+      <c r="E25" s="30" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A25" s="121"/>
-      <c r="B25" s="106" t="s">
+      <c r="F25" s="30" t="s">
         <v>325</v>
-      </c>
-      <c r="C25" s="104" t="s">
-        <v>611</v>
-      </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>327</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="A26" s="130"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="94" t="s">
+        <v>623</v>
+      </c>
+      <c r="D26" s="94"/>
+      <c r="E26" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="145" x14ac:dyDescent="0.35">
-      <c r="A26" s="121"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="105" t="s">
-        <v>625</v>
-      </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>330</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="130"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="108"/>
+      <c r="E27" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="29" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="121"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="91" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>333</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="130"/>
+      <c r="B28" s="113" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="93" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="121"/>
-      <c r="B28" s="106" t="s">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="F28" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104" t="s">
+      <c r="G28" s="120"/>
+      <c r="H28" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="F28" s="104" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="130"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="G28" s="123"/>
-      <c r="H28" s="48" t="s">
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="121"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="105" t="s">
+    <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="130"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="94" t="s">
         <v>340</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="49" t="s">
+      <c r="D30" s="94"/>
+      <c r="E30" s="31" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="121"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="105" t="s">
-        <v>342</v>
-      </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="31" t="s">
-        <v>343</v>
-      </c>
       <c r="F30" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G30" s="31"/>
       <c r="H30" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="232" x14ac:dyDescent="0.35">
+      <c r="A31" s="130"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="110" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" s="110"/>
+      <c r="E31" s="28" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="232" x14ac:dyDescent="0.35">
-      <c r="A31" s="121"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="89" t="s">
+      <c r="F31" s="28" t="s">
         <v>345</v>
-      </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>347</v>
       </c>
       <c r="G31" s="31"/>
       <c r="H31" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="130"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="94" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" s="94"/>
+      <c r="E32" s="31" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="121"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="31" t="s">
-        <v>350</v>
-      </c>
       <c r="F32" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G32" s="31"/>
       <c r="H32" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="130"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="94" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="94"/>
+      <c r="E33" s="31" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="121"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="105" t="s">
-        <v>352</v>
-      </c>
-      <c r="D33" s="105"/>
-      <c r="E33" s="31" t="s">
-        <v>353</v>
-      </c>
       <c r="F33" s="31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="55" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="130"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="94"/>
+      <c r="E34" s="31" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="121"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="105" t="s">
+      <c r="F34" s="31" t="s">
         <v>355</v>
-      </c>
-      <c r="D34" s="105"/>
-      <c r="E34" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>357</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="130"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="94"/>
+      <c r="E35" s="31" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="121"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="105" t="s">
-        <v>359</v>
-      </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="31" t="s">
-        <v>360</v>
-      </c>
       <c r="F35" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G35" s="31"/>
       <c r="H35" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="130"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="94" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="94"/>
+      <c r="E36" s="31" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="121"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="105" t="s">
+      <c r="F36" s="31" t="s">
         <v>362</v>
-      </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>364</v>
       </c>
       <c r="G36" s="72"/>
       <c r="H36" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="121"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="91" t="s">
-        <v>612</v>
-      </c>
-      <c r="D37" s="91"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="108" t="s">
+        <v>610</v>
+      </c>
+      <c r="D37" s="108"/>
       <c r="E37" s="29" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="130"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" s="94"/>
+      <c r="E38" s="31" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="121"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="105" t="s">
+      <c r="F38" s="31" t="s">
         <v>367</v>
-      </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>369</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="130"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="119" t="s">
+        <v>369</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="32" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="121"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="125" t="s">
+      <c r="F39" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>373</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="130"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="108" t="s">
+        <v>373</v>
+      </c>
+      <c r="D40" s="108"/>
+      <c r="E40" s="29" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="121"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="91" t="s">
+      <c r="F40" s="29" t="s">
         <v>375</v>
-      </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>377</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="130"/>
+      <c r="B41" s="141" t="s">
+        <v>377</v>
+      </c>
+      <c r="C41" s="93" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="121"/>
-      <c r="B41" s="109" t="s">
+      <c r="D41" s="93"/>
+      <c r="E41" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="C41" s="104" t="s">
+      <c r="F41" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="30" t="s">
+      <c r="H41" s="48" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="130"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="94" t="s">
         <v>381</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="D42" s="94"/>
+      <c r="E42" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="H41" s="48" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="121"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="105" t="s">
-        <v>383</v>
-      </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="31" t="s">
-        <v>384</v>
-      </c>
       <c r="F42" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G42" s="31"/>
       <c r="H42" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="130"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="94" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" s="94"/>
+      <c r="E43" s="31" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="121"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="105" t="s">
+      <c r="F43" s="31" t="s">
         <v>386</v>
-      </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>388</v>
       </c>
       <c r="G43" s="31"/>
       <c r="H43" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="130"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="106" t="s">
+        <v>388</v>
+      </c>
+      <c r="D44" s="107"/>
+      <c r="E44" s="31" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="121"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="92" t="s">
+      <c r="F44" s="31" t="s">
         <v>390</v>
-      </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>392</v>
       </c>
       <c r="G44" s="31"/>
       <c r="H44" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="130"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="94" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="94"/>
+      <c r="E45" s="31" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="121"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="105" t="s">
+      <c r="F45" s="31" t="s">
         <v>394</v>
-      </c>
-      <c r="D45" s="105"/>
-      <c r="E45" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>396</v>
       </c>
       <c r="G45" s="31"/>
       <c r="H45" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A46" s="130"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="94" t="s">
+        <v>396</v>
+      </c>
+      <c r="D46" s="94"/>
+      <c r="E46" s="31" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A46" s="121"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="105" t="s">
+      <c r="F46" s="28" t="s">
         <v>398</v>
-      </c>
-      <c r="D46" s="105"/>
-      <c r="E46" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>400</v>
       </c>
       <c r="G46" s="31"/>
       <c r="H46" s="14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="130"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="D47" s="94"/>
+      <c r="E47" s="31" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="121"/>
-      <c r="B47" s="110"/>
-      <c r="C47" s="105" t="s">
+      <c r="F47" s="28" t="s">
         <v>402</v>
-      </c>
-      <c r="D47" s="105"/>
-      <c r="E47" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>404</v>
       </c>
       <c r="G47" s="31"/>
       <c r="H47" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A48" s="130"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="110" t="s">
+        <v>404</v>
+      </c>
+      <c r="D48" s="110"/>
+      <c r="E48" s="28" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A48" s="121"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="89" t="s">
+      <c r="F48" s="28" t="s">
         <v>406</v>
-      </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>408</v>
       </c>
       <c r="G48" s="31"/>
       <c r="H48" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="130"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="143" t="s">
+        <v>408</v>
+      </c>
+      <c r="D49" s="144"/>
+      <c r="E49" s="28" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="121"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="111" t="s">
-        <v>410</v>
-      </c>
-      <c r="D49" s="112"/>
-      <c r="E49" s="28" t="s">
-        <v>411</v>
-      </c>
       <c r="F49" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G49" s="31"/>
       <c r="H49" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="130"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="143" t="s">
+        <v>411</v>
+      </c>
+      <c r="D50" s="144"/>
+      <c r="E50" s="28" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="121"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="111" t="s">
-        <v>413</v>
-      </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="28" t="s">
-        <v>414</v>
-      </c>
       <c r="F50" s="28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G50" s="31"/>
       <c r="H50" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="130"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="94" t="s">
+        <v>414</v>
+      </c>
+      <c r="D51" s="94"/>
+      <c r="E51" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="121"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="105" t="s">
-        <v>416</v>
-      </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>417</v>
       </c>
       <c r="G51" s="73"/>
       <c r="H51" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A52" s="130"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="94" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="94"/>
+      <c r="E52" s="31" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A52" s="121"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="105" t="s">
+      <c r="F52" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="31" t="s">
+      <c r="G52" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="H52" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="G52" s="31" t="s">
+    </row>
+    <row r="53" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A53" s="130"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="94" t="s">
         <v>422</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="D53" s="94"/>
+      <c r="E53" s="57" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A53" s="121"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="105" t="s">
-        <v>424</v>
-      </c>
-      <c r="D53" s="105"/>
-      <c r="E53" s="57" t="s">
-        <v>425</v>
-      </c>
       <c r="F53" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A54" s="121"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="105" t="s">
+      <c r="A54" s="130"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="94" t="s">
+        <v>424</v>
+      </c>
+      <c r="D54" s="94"/>
+      <c r="E54" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="D54" s="105"/>
-      <c r="E54" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="H54" s="14" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="121"/>
-      <c r="B55" s="110"/>
-      <c r="C55" s="105" t="s">
-        <v>613</v>
-      </c>
-      <c r="D55" s="105"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="94" t="s">
+        <v>611</v>
+      </c>
+      <c r="D55" s="94"/>
       <c r="E55" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="55" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="130"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="94" t="s">
+        <v>612</v>
+      </c>
+      <c r="D56" s="94"/>
+      <c r="E56" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="F56" s="31" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="121"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="105" t="s">
-        <v>614</v>
-      </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>431</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="130"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="106" t="s">
+        <v>431</v>
+      </c>
+      <c r="D57" s="107"/>
+      <c r="E57" s="29" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="121"/>
-      <c r="B57" s="110"/>
-      <c r="C57" s="92" t="s">
+      <c r="F57" s="29" t="s">
         <v>433</v>
-      </c>
-      <c r="D57" s="93"/>
-      <c r="E57" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>435</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="18" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="130"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D58" s="107"/>
+      <c r="E58" s="29" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="121"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="92" t="s">
-        <v>437</v>
-      </c>
-      <c r="D58" s="93"/>
-      <c r="E58" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="F58" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="130"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="D59" s="115"/>
+      <c r="E59" s="58" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="121"/>
-      <c r="B59" s="110"/>
-      <c r="C59" s="126" t="s">
-        <v>440</v>
-      </c>
-      <c r="D59" s="126"/>
-      <c r="E59" s="58" t="s">
-        <v>441</v>
-      </c>
       <c r="F59" s="59" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G59" s="58"/>
       <c r="H59" s="18" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="130"/>
+      <c r="B60" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="C60" s="93" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="121"/>
-      <c r="B60" s="106" t="s">
+      <c r="D60" s="93"/>
+      <c r="E60" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="C60" s="104" t="s">
+      <c r="F60" s="30" t="s">
         <v>444</v>
-      </c>
-      <c r="D60" s="104"/>
-      <c r="E60" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>446</v>
       </c>
       <c r="G60" s="30"/>
       <c r="H60" s="48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="130"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="94" t="s">
+        <v>446</v>
+      </c>
+      <c r="D61" s="94"/>
+      <c r="E61" s="31" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A61" s="121"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="105" t="s">
-        <v>448</v>
-      </c>
-      <c r="D61" s="105"/>
-      <c r="E61" s="31" t="s">
-        <v>449</v>
-      </c>
       <c r="F61" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G61" s="31"/>
       <c r="H61" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="130"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="94" t="s">
+        <v>449</v>
+      </c>
+      <c r="D62" s="94"/>
+      <c r="E62" s="31" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="121"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="105" t="s">
-        <v>451</v>
-      </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="31" t="s">
-        <v>452</v>
-      </c>
       <c r="F62" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="130"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="108" t="s">
+        <v>452</v>
+      </c>
+      <c r="D63" s="108"/>
+      <c r="E63" s="29" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="121"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="91" t="s">
-        <v>454</v>
-      </c>
-      <c r="D63" s="91"/>
-      <c r="E63" s="29" t="s">
-        <v>455</v>
-      </c>
       <c r="F63" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A64" s="130"/>
+      <c r="B64" s="113" t="s">
+        <v>455</v>
+      </c>
+      <c r="C64" s="118" t="s">
+        <v>626</v>
+      </c>
+      <c r="D64" s="118"/>
+      <c r="E64" s="65" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="116" x14ac:dyDescent="0.35">
-      <c r="A64" s="121"/>
-      <c r="B64" s="106" t="s">
+      <c r="F64" s="65" t="s">
         <v>457</v>
       </c>
-      <c r="C64" s="127" t="s">
-        <v>628</v>
-      </c>
-      <c r="D64" s="127"/>
-      <c r="E64" s="65" t="s">
+      <c r="G64" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="F64" s="65" t="s">
+      <c r="H64" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="G64" s="30" t="s">
+    </row>
+    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="130"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="H64" s="48" t="s">
+      <c r="D65" s="94"/>
+      <c r="E65" s="74" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="121"/>
-      <c r="B65" s="107"/>
-      <c r="C65" s="105" t="s">
+      <c r="F65" s="31" t="s">
         <v>462</v>
-      </c>
-      <c r="D65" s="105"/>
-      <c r="E65" s="74" t="s">
-        <v>463</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>464</v>
       </c>
       <c r="G65" s="31"/>
       <c r="H65" s="14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="130"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="106" t="s">
+        <v>464</v>
+      </c>
+      <c r="D66" s="107"/>
+      <c r="E66" s="75" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="121"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="92" t="s">
-        <v>466</v>
-      </c>
-      <c r="D66" s="93"/>
-      <c r="E66" s="75" t="s">
-        <v>467</v>
-      </c>
       <c r="F66" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G66" s="29"/>
       <c r="H66" s="18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="130"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="108" t="s">
+        <v>467</v>
+      </c>
+      <c r="D67" s="108"/>
+      <c r="E67" s="29" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="121"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="91" t="s">
+      <c r="F67" s="29" t="s">
         <v>469</v>
-      </c>
-      <c r="D67" s="91"/>
-      <c r="E67" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>471</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="130"/>
+      <c r="B68" s="111" t="s">
+        <v>471</v>
+      </c>
+      <c r="C68" s="103" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="121"/>
-      <c r="B68" s="128" t="s">
+      <c r="D68" s="103"/>
+      <c r="E68" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="C68" s="130" t="s">
-        <v>474</v>
-      </c>
-      <c r="D68" s="130"/>
-      <c r="E68" s="60" t="s">
-        <v>475</v>
-      </c>
       <c r="F68" s="60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G68" s="60"/>
       <c r="H68" s="61" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="130"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="101" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" s="102"/>
+      <c r="E69" s="60" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="121"/>
-      <c r="B69" s="129"/>
-      <c r="C69" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="D69" s="97"/>
-      <c r="E69" s="60" t="s">
-        <v>478</v>
-      </c>
       <c r="F69" s="60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G69" s="60"/>
       <c r="H69" s="61" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="130"/>
+      <c r="B70" s="113" t="s">
+        <v>478</v>
+      </c>
+      <c r="C70" s="93" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="121"/>
-      <c r="B70" s="106" t="s">
+      <c r="D70" s="93"/>
+      <c r="E70" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="C70" s="104" t="s">
-        <v>481</v>
-      </c>
-      <c r="D70" s="104"/>
-      <c r="E70" s="30" t="s">
-        <v>482</v>
-      </c>
       <c r="F70" s="30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G70" s="30"/>
       <c r="H70" s="48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="130"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="D71" s="95"/>
+      <c r="E71" s="34" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="121"/>
-      <c r="B71" s="131"/>
-      <c r="C71" s="132" t="s">
-        <v>484</v>
-      </c>
-      <c r="D71" s="132"/>
-      <c r="E71" s="34" t="s">
-        <v>485</v>
-      </c>
       <c r="F71" s="62" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G71" s="63"/>
       <c r="H71" s="64" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A72" s="135" t="s">
+        <v>485</v>
+      </c>
+      <c r="B72" s="138" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A72" s="98" t="s">
+      <c r="C72" s="93" t="s">
+        <v>613</v>
+      </c>
+      <c r="D72" s="93"/>
+      <c r="E72" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="B72" s="101" t="s">
+      <c r="F72" s="65" t="s">
         <v>488</v>
-      </c>
-      <c r="C72" s="104" t="s">
-        <v>615</v>
-      </c>
-      <c r="D72" s="104"/>
-      <c r="E72" s="65" t="s">
-        <v>489</v>
-      </c>
-      <c r="F72" s="65" t="s">
-        <v>490</v>
       </c>
       <c r="G72" s="30"/>
       <c r="H72" s="48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="99"/>
-      <c r="B73" s="102"/>
-      <c r="C73" s="105" t="s">
-        <v>616</v>
-      </c>
-      <c r="D73" s="105"/>
+      <c r="A73" s="136"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="94" t="s">
+        <v>614</v>
+      </c>
+      <c r="D73" s="94"/>
       <c r="E73" s="31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G73" s="31"/>
       <c r="H73" s="14" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A74" s="99"/>
-      <c r="B74" s="102"/>
-      <c r="C74" s="105" t="s">
-        <v>617</v>
-      </c>
-      <c r="D74" s="105"/>
+      <c r="A74" s="136"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="94" t="s">
+        <v>615</v>
+      </c>
+      <c r="D74" s="94"/>
       <c r="E74" s="31" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G74" s="31"/>
       <c r="H74" s="14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="99"/>
-      <c r="B75" s="102"/>
-      <c r="C75" s="105" t="s">
-        <v>496</v>
-      </c>
-      <c r="D75" s="105"/>
+      <c r="A75" s="136"/>
+      <c r="B75" s="139"/>
+      <c r="C75" s="94" t="s">
+        <v>494</v>
+      </c>
+      <c r="D75" s="94"/>
       <c r="E75" s="51"/>
       <c r="F75" s="31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="55" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="99"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="105" t="s">
-        <v>499</v>
-      </c>
-      <c r="D76" s="105"/>
+      <c r="A76" s="136"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="94" t="s">
+        <v>497</v>
+      </c>
+      <c r="D76" s="94"/>
       <c r="E76" s="31"/>
       <c r="F76" s="31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G76" s="31"/>
       <c r="H76" s="55" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="99"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="105" t="s">
-        <v>501</v>
-      </c>
-      <c r="D77" s="105"/>
+      <c r="A77" s="136"/>
+      <c r="B77" s="139"/>
+      <c r="C77" s="94" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" s="94"/>
       <c r="E77" s="31"/>
       <c r="F77" s="31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G77" s="31"/>
       <c r="H77" s="14" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" ht="44.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="99"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="D78" s="91"/>
+      <c r="A78" s="136"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="108" t="s">
+        <v>501</v>
+      </c>
+      <c r="D78" s="108"/>
       <c r="E78" s="29"/>
       <c r="F78" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="136"/>
+      <c r="B79" s="90" t="s">
+        <v>503</v>
+      </c>
+      <c r="C79" s="93" t="s">
+        <v>616</v>
+      </c>
+      <c r="D79" s="93"/>
+      <c r="E79" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="99"/>
-      <c r="B79" s="133" t="s">
+      <c r="F79" s="30" t="s">
         <v>505</v>
-      </c>
-      <c r="C79" s="104" t="s">
-        <v>618</v>
-      </c>
-      <c r="D79" s="104"/>
-      <c r="E79" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>507</v>
       </c>
       <c r="G79" s="30"/>
       <c r="H79" s="48" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="99"/>
-      <c r="B80" s="134"/>
-      <c r="C80" s="105" t="s">
-        <v>619</v>
-      </c>
-      <c r="D80" s="105"/>
+      <c r="A80" s="136"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="94" t="s">
+        <v>617</v>
+      </c>
+      <c r="D80" s="94"/>
       <c r="E80" s="31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G80" s="31"/>
       <c r="H80" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="99"/>
-      <c r="B81" s="134"/>
-      <c r="C81" s="89" t="s">
-        <v>620</v>
-      </c>
-      <c r="D81" s="89"/>
+      <c r="A81" s="136"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="110" t="s">
+        <v>618</v>
+      </c>
+      <c r="D81" s="110"/>
       <c r="E81" s="28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G81" s="31"/>
       <c r="H81" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="99"/>
-      <c r="B82" s="134"/>
-      <c r="C82" s="89" t="s">
-        <v>621</v>
-      </c>
-      <c r="D82" s="89"/>
+      <c r="A82" s="136"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="110" t="s">
+        <v>619</v>
+      </c>
+      <c r="D82" s="110"/>
       <c r="E82" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G82" s="31"/>
       <c r="H82" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="136"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="110" t="s">
+        <v>513</v>
+      </c>
+      <c r="D83" s="110"/>
+      <c r="E83" s="28" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="99"/>
-      <c r="B83" s="134"/>
-      <c r="C83" s="89" t="s">
+      <c r="F83" s="28" t="s">
         <v>515</v>
-      </c>
-      <c r="D83" s="89"/>
-      <c r="E83" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>517</v>
       </c>
       <c r="G83" s="31"/>
       <c r="H83" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A84" s="136"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="94" t="s">
+        <v>517</v>
+      </c>
+      <c r="D84" s="94"/>
+      <c r="E84" s="31" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A84" s="99"/>
-      <c r="B84" s="134"/>
-      <c r="C84" s="105" t="s">
+      <c r="F84" s="31" t="s">
         <v>519</v>
-      </c>
-      <c r="D84" s="105"/>
-      <c r="E84" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>521</v>
       </c>
       <c r="G84" s="31"/>
       <c r="H84" s="14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="136"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="94" t="s">
+        <v>521</v>
+      </c>
+      <c r="D85" s="94"/>
+      <c r="E85" s="31" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="99"/>
-      <c r="B85" s="134"/>
-      <c r="C85" s="105" t="s">
-        <v>523</v>
-      </c>
-      <c r="D85" s="105"/>
-      <c r="E85" s="31" t="s">
-        <v>524</v>
-      </c>
       <c r="F85" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G85" s="72"/>
       <c r="H85" s="14" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="99"/>
-      <c r="B86" s="135"/>
-      <c r="C86" s="91" t="s">
-        <v>622</v>
-      </c>
-      <c r="D86" s="91"/>
+      <c r="A86" s="136"/>
+      <c r="B86" s="109"/>
+      <c r="C86" s="108" t="s">
+        <v>620</v>
+      </c>
+      <c r="D86" s="108"/>
       <c r="E86" s="29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G86" s="29"/>
       <c r="H86" s="18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="153.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="136"/>
+      <c r="B87" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="C87" s="103" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="153.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="99"/>
-      <c r="B87" s="36" t="s">
+      <c r="D87" s="103"/>
+      <c r="E87" s="60" t="s">
         <v>528</v>
       </c>
-      <c r="C87" s="130" t="s">
-        <v>529</v>
-      </c>
-      <c r="D87" s="130"/>
-      <c r="E87" s="60" t="s">
-        <v>530</v>
-      </c>
       <c r="F87" s="60" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="136"/>
+      <c r="B88" s="90" t="s">
+        <v>530</v>
+      </c>
+      <c r="C88" s="93" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="99"/>
-      <c r="B88" s="133" t="s">
+      <c r="D88" s="93"/>
+      <c r="E88" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="C88" s="104" t="s">
+      <c r="F88" s="30" t="s">
         <v>533</v>
-      </c>
-      <c r="D88" s="104"/>
-      <c r="E88" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>535</v>
       </c>
       <c r="G88" s="15"/>
       <c r="H88" s="54" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="136"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="104" t="s">
+        <v>535</v>
+      </c>
+      <c r="D89" s="105"/>
+      <c r="E89" s="35" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="99"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="138" t="s">
-        <v>537</v>
-      </c>
-      <c r="D89" s="139"/>
-      <c r="E89" s="35" t="s">
-        <v>538</v>
-      </c>
       <c r="F89" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="136"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="94" t="s">
+        <v>538</v>
+      </c>
+      <c r="D90" s="94"/>
+      <c r="E90" s="31" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="99"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="105" t="s">
-        <v>540</v>
-      </c>
-      <c r="D90" s="105"/>
-      <c r="E90" s="31" t="s">
-        <v>541</v>
-      </c>
       <c r="F90" s="31" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="55" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="136"/>
+      <c r="B91" s="97"/>
+      <c r="C91" s="106" t="s">
+        <v>541</v>
+      </c>
+      <c r="D91" s="107"/>
+      <c r="E91" s="29" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A91" s="99"/>
-      <c r="B91" s="136"/>
-      <c r="C91" s="92" t="s">
-        <v>543</v>
-      </c>
-      <c r="D91" s="93"/>
-      <c r="E91" s="29" t="s">
-        <v>544</v>
-      </c>
       <c r="F91" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="66" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="136"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="106" t="s">
+        <v>544</v>
+      </c>
+      <c r="D92" s="107"/>
+      <c r="E92" s="29" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="99"/>
-      <c r="B92" s="136"/>
-      <c r="C92" s="92" t="s">
-        <v>546</v>
-      </c>
-      <c r="D92" s="93"/>
-      <c r="E92" s="29" t="s">
-        <v>547</v>
-      </c>
       <c r="F92" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="66" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="136"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="106" t="s">
+        <v>547</v>
+      </c>
+      <c r="D93" s="107"/>
+      <c r="E93" s="29" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="99"/>
-      <c r="B93" s="136"/>
-      <c r="C93" s="92" t="s">
-        <v>549</v>
-      </c>
-      <c r="D93" s="93"/>
-      <c r="E93" s="29" t="s">
-        <v>550</v>
-      </c>
       <c r="F93" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="66" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="136"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="95" t="s">
+        <v>550</v>
+      </c>
+      <c r="D94" s="95"/>
+      <c r="E94" s="34" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="99"/>
-      <c r="B94" s="137"/>
-      <c r="C94" s="132" t="s">
-        <v>552</v>
-      </c>
-      <c r="D94" s="132"/>
-      <c r="E94" s="34" t="s">
-        <v>553</v>
-      </c>
       <c r="F94" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G94" s="23"/>
       <c r="H94" s="67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="107.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="136"/>
+      <c r="B95" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="C95" s="89" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="107.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="99"/>
-      <c r="B95" s="33" t="s">
+      <c r="D95" s="89"/>
+      <c r="E95" s="35" t="s">
         <v>555</v>
       </c>
-      <c r="C95" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="D95" s="140"/>
-      <c r="E95" s="35" t="s">
-        <v>557</v>
-      </c>
       <c r="F95" s="35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G95" s="22"/>
       <c r="H95" s="68" t="s">
+        <v>556</v>
+      </c>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="136"/>
+      <c r="B96" s="90" t="s">
+        <v>557</v>
+      </c>
+      <c r="C96" s="93" t="s">
         <v>558</v>
       </c>
-      <c r="I95" s="27"/>
-    </row>
-    <row r="96" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="99"/>
-      <c r="B96" s="133" t="s">
+      <c r="D96" s="93"/>
+      <c r="E96" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="C96" s="104" t="s">
-        <v>560</v>
-      </c>
-      <c r="D96" s="104"/>
-      <c r="E96" s="30" t="s">
-        <v>561</v>
-      </c>
       <c r="F96" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G96" s="15"/>
       <c r="H96" s="48" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I96" s="27"/>
     </row>
     <row r="97" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="99"/>
-      <c r="B97" s="134"/>
-      <c r="C97" s="105" t="s">
-        <v>562</v>
-      </c>
-      <c r="D97" s="105"/>
+      <c r="A97" s="136"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="94" t="s">
+        <v>560</v>
+      </c>
+      <c r="D97" s="94"/>
       <c r="E97" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="I97" s="27"/>
+    </row>
+    <row r="98" spans="1:9" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="136"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="95" t="s">
+        <v>562</v>
+      </c>
+      <c r="D98" s="95"/>
+      <c r="E98" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="I97" s="27"/>
-    </row>
-    <row r="98" spans="1:9" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="99"/>
-      <c r="B98" s="137"/>
-      <c r="C98" s="132" t="s">
+      <c r="F98" s="34" t="s">
         <v>564</v>
-      </c>
-      <c r="D98" s="132"/>
-      <c r="E98" s="34" t="s">
-        <v>565</v>
-      </c>
-      <c r="F98" s="34" t="s">
-        <v>566</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="69" t="s">
+        <v>565</v>
+      </c>
+      <c r="I98" s="27"/>
+    </row>
+    <row r="99" spans="1:9" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="136"/>
+      <c r="B99" s="96" t="s">
+        <v>566</v>
+      </c>
+      <c r="C99" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="I98" s="27"/>
-    </row>
-    <row r="99" spans="1:9" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="99"/>
-      <c r="B99" s="141" t="s">
+      <c r="D99" s="100"/>
+      <c r="E99" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="C99" s="143" t="s">
+      <c r="F99" s="35" t="s">
         <v>569</v>
-      </c>
-      <c r="D99" s="144"/>
-      <c r="E99" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>571</v>
       </c>
       <c r="G99" s="22"/>
       <c r="H99" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="136"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="101" t="s">
+        <v>571</v>
+      </c>
+      <c r="D100" s="102"/>
+      <c r="E100" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="I99" s="27"/>
-    </row>
-    <row r="100" spans="1:9" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="99"/>
-      <c r="B100" s="136"/>
-      <c r="C100" s="96" t="s">
+      <c r="F100" s="35" t="s">
         <v>573</v>
-      </c>
-      <c r="D100" s="97"/>
-      <c r="E100" s="35" t="s">
-        <v>574</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>575</v>
       </c>
       <c r="G100" s="22"/>
       <c r="H100" s="68" t="s">
+        <v>574</v>
+      </c>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="136"/>
+      <c r="B101" s="97"/>
+      <c r="C101" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="D101" s="102"/>
+      <c r="E101" s="35" t="s">
         <v>576</v>
       </c>
-      <c r="I100" s="27"/>
-    </row>
-    <row r="101" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="99"/>
-      <c r="B101" s="136"/>
-      <c r="C101" s="96" t="s">
-        <v>577</v>
-      </c>
-      <c r="D101" s="97"/>
-      <c r="E101" s="35" t="s">
-        <v>578</v>
-      </c>
       <c r="F101" s="35" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G101" s="22"/>
       <c r="H101" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="I101" s="27"/>
+    </row>
+    <row r="102" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="136"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="101" t="s">
+        <v>578</v>
+      </c>
+      <c r="D102" s="102"/>
+      <c r="E102" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="I101" s="27"/>
-    </row>
-    <row r="102" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="99"/>
-      <c r="B102" s="136"/>
-      <c r="C102" s="96" t="s">
-        <v>580</v>
-      </c>
-      <c r="D102" s="97"/>
-      <c r="E102" s="35" t="s">
-        <v>581</v>
-      </c>
       <c r="F102" s="35" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="68" t="s">
+        <v>580</v>
+      </c>
+      <c r="I102" s="27"/>
+    </row>
+    <row r="103" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="136"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="D103" s="102"/>
+      <c r="E103" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="I102" s="27"/>
-    </row>
-    <row r="103" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="99"/>
-      <c r="B103" s="136"/>
-      <c r="C103" s="96" t="s">
-        <v>583</v>
-      </c>
-      <c r="D103" s="97"/>
-      <c r="E103" s="35" t="s">
-        <v>584</v>
-      </c>
       <c r="F103" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G103" s="22"/>
       <c r="H103" s="68" t="s">
+        <v>583</v>
+      </c>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="136"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="101" t="s">
+        <v>584</v>
+      </c>
+      <c r="D104" s="102"/>
+      <c r="E104" s="35" t="s">
         <v>585</v>
       </c>
-      <c r="I103" s="27"/>
-    </row>
-    <row r="104" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="99"/>
-      <c r="B104" s="142"/>
-      <c r="C104" s="96" t="s">
-        <v>586</v>
-      </c>
-      <c r="D104" s="97"/>
-      <c r="E104" s="35" t="s">
-        <v>587</v>
-      </c>
       <c r="F104" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G104" s="22"/>
       <c r="H104" s="68" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:9" ht="355" x14ac:dyDescent="0.35">
-      <c r="A105" s="99"/>
+      <c r="A105" s="136"/>
       <c r="B105" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="C105" s="113" t="s">
-        <v>589</v>
-      </c>
-      <c r="D105" s="113"/>
+        <v>586</v>
+      </c>
+      <c r="C105" s="122" t="s">
+        <v>587</v>
+      </c>
+      <c r="D105" s="122"/>
       <c r="E105" s="60"/>
       <c r="F105" s="60"/>
       <c r="G105" s="21"/>
@@ -7084,14 +7065,14 @@
       <c r="I105" s="27"/>
     </row>
     <row r="106" spans="1:9" ht="122.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="100"/>
+      <c r="A106" s="137"/>
       <c r="B106" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="C106" s="113" t="s">
-        <v>589</v>
-      </c>
-      <c r="D106" s="113"/>
+        <v>588</v>
+      </c>
+      <c r="C106" s="122" t="s">
+        <v>587</v>
+      </c>
+      <c r="D106" s="122"/>
       <c r="E106" s="70"/>
       <c r="F106" s="70"/>
       <c r="G106" s="70"/>
@@ -7106,7 +7087,7 @@
       <c r="F107" s="44"/>
       <c r="G107" s="44"/>
       <c r="H107" s="44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -7119,87 +7100,29 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A72:A106"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B41:B59"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="C106:D106"/>
     <mergeCell ref="C25:D25"/>
@@ -7224,29 +7147,87 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A72:A106"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B41:B59"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C104:D104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7254,6 +7235,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010029BBA8B83A7399498439BDB7B52A1BCD" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b48581326d76be67a36be02078d61c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e8501459-55ad-4a17-b4fb-ef56f154c4d5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e095970dca1c4350e49075ce65ef0aa" ns2:_="">
     <xsd:import namespace="e8501459-55ad-4a17-b4fb-ef56f154c4d5"/>
@@ -7411,15 +7401,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7427,6 +7408,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF9C6FA-7418-4FE3-A2D5-D3E978286346}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6ED6417-2053-4E8B-81AF-A3442C41FF81}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7444,14 +7433,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF9C6FA-7418-4FE3-A2D5-D3E978286346}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239BC639-CE26-4A6C-B400-E738168E7CCF}">
   <ds:schemaRefs>
